--- a/Math100 Test 2 regrades.xlsx
+++ b/Math100 Test 2 regrades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amurphy\Documents\pythonStuff\regrade_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C647070-7F0E-49EA-A021-C4429B23470E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D3EC05-C0DF-413E-A7FF-65415AB62996}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>tc={A2A06A38-8A3C-4837-9D44-446528801114}</author>
   </authors>
   <commentList>
-    <comment ref="A127" authorId="0" shapeId="0" xr:uid="{A2A06A38-8A3C-4837-9D44-446528801114}">
+    <comment ref="A123" authorId="0" shapeId="0" xr:uid="{A2A06A38-8A3C-4837-9D44-446528801114}">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="130">
   <si>
     <t>student #</t>
   </si>
@@ -78,30 +78,36 @@
     <t>comments</t>
   </si>
   <si>
+    <t>A43</t>
+  </si>
+  <si>
+    <t>Thu2</t>
+  </si>
+  <si>
+    <t>Adam Martens</t>
+  </si>
+  <si>
+    <t>Dragos</t>
+  </si>
+  <si>
+    <t>+1 marks</t>
+  </si>
+  <si>
     <t>A41</t>
   </si>
   <si>
-    <t>Thu2</t>
-  </si>
-  <si>
-    <t>Adam Martens</t>
-  </si>
-  <si>
-    <t>Dragos</t>
-  </si>
-  <si>
     <t>+0 marks</t>
   </si>
   <si>
-    <t>+1 marks</t>
-  </si>
-  <si>
-    <t>A43</t>
+    <t>-1 marks</t>
   </si>
   <si>
     <t xml:space="preserve">+2 marks </t>
   </si>
   <si>
+    <t>-3 points/mark/marks/mk etc.</t>
+  </si>
+  <si>
     <t>B26</t>
   </si>
   <si>
@@ -126,51 +132,57 @@
     <t>B38</t>
   </si>
   <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>Fri3</t>
+  </si>
+  <si>
+    <t>Brian Wetton</t>
+  </si>
+  <si>
+    <t>A34</t>
+  </si>
+  <si>
     <t>A23</t>
   </si>
   <si>
-    <t>Fri3</t>
-  </si>
-  <si>
-    <t>Brian Wetton</t>
-  </si>
-  <si>
-    <t>A26</t>
-  </si>
-  <si>
     <t>A33</t>
   </si>
   <si>
-    <t>A34</t>
+    <t>Charlotte Trainor</t>
+  </si>
+  <si>
+    <t>Eric &amp; Matt</t>
   </si>
   <si>
     <t>B13</t>
   </si>
   <si>
-    <t>Charlotte Trainor</t>
-  </si>
-  <si>
-    <t>Eric &amp; Matt</t>
+    <t>C37</t>
   </si>
   <si>
     <t>C13</t>
   </si>
   <si>
-    <t>C37</t>
+    <t>A35</t>
+  </si>
+  <si>
+    <t>Dragos Ghioca</t>
   </si>
   <si>
     <t>A14</t>
   </si>
   <si>
-    <t>Dragos Ghioca</t>
-  </si>
-  <si>
-    <t>A35</t>
-  </si>
-  <si>
     <t>A36</t>
   </si>
   <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>Thu9</t>
+  </si>
+  <si>
     <t>Elyse Yeager</t>
   </si>
   <si>
@@ -183,51 +195,45 @@
     <t>C16</t>
   </si>
   <si>
-    <t>Thu9</t>
-  </si>
-  <si>
-    <t>C28</t>
+    <t>A42</t>
+  </si>
+  <si>
+    <t>Tue7</t>
+  </si>
+  <si>
+    <t>Eric Cytrynbaum</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>B37</t>
   </si>
   <si>
     <t>A13</t>
   </si>
   <si>
-    <t>Tue7</t>
-  </si>
-  <si>
-    <t>Eric Cytrynbaum</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>A42</t>
-  </si>
-  <si>
     <t>B25</t>
   </si>
   <si>
-    <t>B37</t>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>Fanze Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric  </t>
   </si>
   <si>
     <t>C22</t>
   </si>
   <si>
-    <t>Fanze Kong</t>
-  </si>
-  <si>
-    <t>C33</t>
-  </si>
-  <si>
     <t>C34</t>
   </si>
   <si>
-    <t xml:space="preserve">Eric  </t>
-  </si>
-  <si>
     <t>Fatemah Saghafifar</t>
   </si>
   <si>
@@ -243,21 +249,21 @@
     <t>A48</t>
   </si>
   <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>Mon6</t>
+  </si>
+  <si>
+    <t>Mark Maclean</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t>AR2</t>
   </si>
   <si>
-    <t>Mon6</t>
-  </si>
-  <si>
-    <t>Mark Maclean</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>C31</t>
-  </si>
-  <si>
     <t>C32</t>
   </si>
   <si>
@@ -276,22 +282,22 @@
     <t>AR3</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>4/4 already on the requested question</t>
   </si>
   <si>
+    <t>Masoud Daneshi</t>
+  </si>
+  <si>
+    <t>Dragos (V1/V3) or Mark (V2)</t>
+  </si>
+  <si>
+    <t>the student lose just 1 mark on this question since they did not mention equations for A and B</t>
+  </si>
+  <si>
     <t>A12</t>
   </si>
   <si>
-    <t>Masoud Daneshi</t>
-  </si>
-  <si>
-    <t>Dragos (V1/V3) or Mark (V2)</t>
-  </si>
-  <si>
-    <t>the student lose just 1 mark on this question since they did not mention equations for A and B</t>
+    <t>C21</t>
   </si>
   <si>
     <t>Matt Coles</t>
@@ -300,6 +306,9 @@
     <t>Matt</t>
   </si>
   <si>
+    <t>B32</t>
+  </si>
+  <si>
     <t>B21</t>
   </si>
   <si>
@@ -309,18 +318,12 @@
     <t>B23</t>
   </si>
   <si>
-    <t>B32</t>
-  </si>
-  <si>
-    <t>C21</t>
+    <t>Matthew Dickson</t>
   </si>
   <si>
     <t>C15</t>
   </si>
   <si>
-    <t>Matthew Dickson</t>
-  </si>
-  <si>
     <t>C25</t>
   </si>
   <si>
@@ -348,72 +351,72 @@
     <t>Patrik Coulibaly</t>
   </si>
   <si>
+    <t>Slightly different method is used, but the solution is correct.</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
     <t>B33</t>
   </si>
   <si>
-    <t>Slightly different method is used, but the solution is correct.</t>
-  </si>
-  <si>
-    <t>C12</t>
+    <t>Paul Péringuey</t>
+  </si>
+  <si>
+    <t>B35</t>
   </si>
   <si>
     <t>B18</t>
   </si>
   <si>
-    <t>Paul Péringuey</t>
-  </si>
-  <si>
-    <t>B35</t>
-  </si>
-  <si>
     <t>B36</t>
   </si>
   <si>
     <t>C27</t>
   </si>
   <si>
+    <t>Petr Kosenko</t>
+  </si>
+  <si>
+    <t>2b contains correct answers for both a and b, giving 3/4</t>
+  </si>
+  <si>
+    <t>A47</t>
+  </si>
+  <si>
+    <t>B28</t>
+  </si>
+  <si>
+    <t>incorrect dy/dx but managed to get tangent line</t>
+  </si>
+  <si>
     <t>A38</t>
   </si>
   <si>
-    <t>Petr Kosenko</t>
-  </si>
-  <si>
-    <t>A47</t>
-  </si>
-  <si>
-    <t>B28</t>
-  </si>
-  <si>
-    <t>incorrect dy/dx but managed to get tangent line</t>
-  </si>
-  <si>
-    <t>2b contains correct answers for both a and b, giving 3/4</t>
-  </si>
-  <si>
     <t>Sarah Dijols</t>
   </si>
   <si>
+    <t>+1 in a) correct answer (not simplified) and +1 in b) idem up to sign</t>
+  </si>
+  <si>
+    <t>a) is completely correct</t>
+  </si>
+  <si>
+    <t>+2 in a) (previous grader didn't consider the extra sheet) and +1 in b) (small calculation error)</t>
+  </si>
+  <si>
     <t xml:space="preserve"> +1 in a) for correct reasoning after an initial error to set up the relation between h and r and +1 in b) for the correct equation</t>
   </si>
   <si>
-    <t>+2 in a) (previous grader didn't consider the extra sheet) and +1 in b) (small calculation error)</t>
-  </si>
-  <si>
-    <t>+1 in a) correct answer (not simplified) and +1 in b) idem up to sign</t>
-  </si>
-  <si>
-    <t>a) is completely correct</t>
-  </si>
-  <si>
     <t>Sebastian Gant</t>
   </si>
   <si>
+    <t>Shubhodip Mondal</t>
+  </si>
+  <si>
     <t>A11</t>
   </si>
   <si>
-    <t>Shubhodip Mondal</t>
-  </si>
-  <si>
     <t>A31</t>
   </si>
   <si>
@@ -423,19 +426,19 @@
     <t>Tim Tian</t>
   </si>
   <si>
+    <t>Victor Juma</t>
+  </si>
+  <si>
     <t>A24</t>
   </si>
   <si>
-    <t>Victor Juma</t>
-  </si>
-  <si>
     <t>A46</t>
   </si>
   <si>
+    <t>C26</t>
+  </si>
+  <si>
     <t>Wenzhao Chen</t>
-  </si>
-  <si>
-    <t>C26</t>
   </si>
   <si>
     <t>Yangshuai Wang</t>
@@ -445,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,8 +475,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.1"/>
+      <color rgb="FF333333"/>
+      <name val="Monaco"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,8 +654,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F4E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -645,11 +669,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -679,12 +718,16 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,11 +763,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CB6327FF-3E53-4FEF-84B9-C7095AE695D1}" name="Table1" displayName="Table1" ref="A1:H132" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:H132" xr:uid="{CB6327FF-3E53-4FEF-84B9-C7095AE695D1}"/>
-  <sortState ref="A2:G132">
-    <sortCondition ref="E2:E132"/>
-    <sortCondition ref="F2:F132"/>
-    <sortCondition ref="D2:D132"/>
-    <sortCondition ref="C2:C132"/>
+  <sortState ref="A2:H132">
+    <sortCondition ref="E1:E132"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{DBFD4E78-1EB0-42CB-971F-498C499573FE}" name="student #"/>
@@ -1037,7 +1077,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A127" dT="2023-12-04T19:11:19.75" personId="{955FA9D0-7684-4BB5-9678-7B79C12E35E9}" id="{A2A06A38-8A3C-4837-9D44-446528801114}">
+  <threadedComment ref="A123" dT="2023-12-04T19:11:19.75" personId="{955FA9D0-7684-4BB5-9678-7B79C12E35E9}" id="{A2A06A38-8A3C-4837-9D44-446528801114}">
     <text>Initially listed as 30673062</text>
   </threadedComment>
 </ThreadedComments>
@@ -1045,32 +1085,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="32" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1088,15 +1129,18 @@
       <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
-        <v>53264487</v>
+        <v>15093891</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="31">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1111,15 +1155,18 @@
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
-        <v>94685435</v>
+        <v>53264487</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="29">
+        <v>13</v>
+      </c>
+      <c r="C3" s="31">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1132,17 +1179,20 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>84610583</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="29">
+        <v>8</v>
+      </c>
+      <c r="C4" s="31">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1155,17 +1205,20 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
-        <v>15093891</v>
+        <v>88506514</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="29">
+        <v>8</v>
+      </c>
+      <c r="C5" s="31">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1178,17 +1231,20 @@
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
-        <v>88506514</v>
+        <v>94685435</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="29">
+        <v>8</v>
+      </c>
+      <c r="C6" s="31">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1201,1300 +1257,1300 @@
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>18275453</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="29">
+        <v>18</v>
+      </c>
+      <c r="C7" s="31">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>35860261</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="31">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="29">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>48750251</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="31">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>51170611</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="31">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
         <v>96737135</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="29">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="31">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>48750251</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="29">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>51170611</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="29">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
+        <v>55195432</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="31">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>64745177</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="31">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
         <v>65972788</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="29">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>55195432</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="31">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="29">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>75214338</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="29">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
+        <v>75214338</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="31">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
         <v>88753207</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="31">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="29">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>18275453</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="31">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>64745177</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="29">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>27179456</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="31">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>27179456</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="29">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>18275453</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="29">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>96737135</v>
+        <v>42023606</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="29">
+        <v>35</v>
+      </c>
+      <c r="C19" s="31">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>50525658</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="31">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="29">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>64746589</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="31">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="29">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>76197284</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="29">
+        <v>35</v>
+      </c>
+      <c r="C22" s="31">
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>96737135</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="31">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>42023606</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="29">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>31861552</v>
+        <v>20466207</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="29">
+        <v>37</v>
+      </c>
+      <c r="C24" s="31">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>20466207</v>
+        <v>31861552</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="29">
+        <v>39</v>
+      </c>
+      <c r="C25" s="31">
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>32943896</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="31">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>50221068</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="29">
+        <v>40</v>
+      </c>
+      <c r="C27" s="31">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>74947425</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="29">
+        <v>40</v>
+      </c>
+      <c r="C28" s="31">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
+        <v>36418788</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="31">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>45210440</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>94685435</v>
-      </c>
       <c r="B30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="29">
+        <v>13</v>
+      </c>
+      <c r="C30" s="31">
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>50922293</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="29">
+        <v>45</v>
+      </c>
+      <c r="C31" s="31">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>88470448</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="31">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="29">
+      <c r="E32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>94685435</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="31">
         <v>1</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>36418788</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="29">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
+        <v>21238936</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="31">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>25604398</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="31">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34313692</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="29">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="31">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="E36" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>21238936</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="29">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>57538571</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="29">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>25604398</v>
+        <v>52366838</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="31">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>57538571</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="31">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="E38" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>52366838</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="29">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="F38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>41061466</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="31">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="E39" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>68306661</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="31">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>69197929</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="29">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="B41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="31">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>78949195</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="29">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>41061466</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="29">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E41" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>77945814</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="31">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="29">
-        <v>3</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="F42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>78949195</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="31">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>68306661</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="29">
-        <v>3</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E43" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>20466207</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="31">
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
-        <v>32943896</v>
+        <v>31138811</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="29">
+        <v>40</v>
+      </c>
+      <c r="C45" s="31">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
-        <v>50221068</v>
+        <v>32943896</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="29">
+        <v>37</v>
+      </c>
+      <c r="C46" s="31">
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
-        <v>31138811</v>
+        <v>50221068</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="29">
+        <v>40</v>
+      </c>
+      <c r="C47" s="31">
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>74947425</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="29">
+        <v>40</v>
+      </c>
+      <c r="C48" s="31">
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>28346682</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="29">
+        <v>61</v>
+      </c>
+      <c r="C49" s="31">
         <v>1</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>29819992</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="31">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>37995685</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>37995685</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="29">
+      <c r="C51" s="31">
         <v>1</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>65972788</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="29">
-        <v>1</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>61291597</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="29">
+        <v>31</v>
+      </c>
+      <c r="C52" s="31">
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
-        <v>29819992</v>
+        <v>65972788</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="31">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="29">
+      <c r="F53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>13847777</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="31">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>51395333</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="31">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1">
+        <v>70482856</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="31">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1">
+        <v>75429670</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="31">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1">
+        <v>10479046</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="31">
         <v>1</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>51395333</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="29">
-        <v>3</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>13847777</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="29">
-        <v>3</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>75429670</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="29">
-        <v>3</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>70482856</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="29">
-        <v>3</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="D58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1">
         <v>23575640</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="29">
+      <c r="B59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="31">
         <v>1</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>10479046</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" s="29">
+      <c r="D59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1">
+        <v>25034224</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="31">
         <v>1</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="D60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G60" s="34">
+        <v>4</v>
+      </c>
+      <c r="H60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1">
         <v>34313692</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="29">
+      <c r="B61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="31">
         <v>1</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>25034224</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E61" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="29">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>71</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>78949195</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="29">
+        <v>58</v>
+      </c>
+      <c r="C62" s="31">
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
-        <v>83745844</v>
+        <v>26628511</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="29">
+        <v>54</v>
+      </c>
+      <c r="C63" s="31">
         <v>2</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E63" s="14" t="s">
         <v>77</v>
@@ -2503,21 +2559,24 @@
         <v>78</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>27475540</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="29">
+        <v>80</v>
+      </c>
+      <c r="C64" s="31">
         <v>2</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>77</v>
@@ -2526,21 +2585,21 @@
         <v>78</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
-        <v>91919373</v>
+        <v>34313692</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C65" s="29">
+        <v>53</v>
+      </c>
+      <c r="C65" s="31">
         <v>2</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E65" s="14" t="s">
         <v>77</v>
@@ -2549,21 +2608,21 @@
         <v>78</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
-        <v>34313692</v>
+        <v>83745844</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="29">
+        <v>80</v>
+      </c>
+      <c r="C66" s="31">
         <v>2</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>77</v>
@@ -2572,21 +2631,21 @@
         <v>78</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
-        <v>26628511</v>
+        <v>91919373</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="29">
+        <v>53</v>
+      </c>
+      <c r="C67" s="31">
         <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>77</v>
@@ -2595,456 +2654,450 @@
         <v>78</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
+        <v>23382393</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="31">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1">
         <v>35643196</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="29">
+      <c r="B69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="31">
         <v>1</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>57759979</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="D69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E69" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="29">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E69" s="15" t="s">
-        <v>80</v>
-      </c>
       <c r="F69" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
-        <v>93103547</v>
+        <v>44091502</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="29">
+      <c r="C70" s="31">
         <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
-        <v>44091502</v>
+        <v>57759979</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="29">
+      <c r="C71" s="31">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
-        <v>23382393</v>
+        <v>93103547</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" s="29">
+        <v>87</v>
+      </c>
+      <c r="C72" s="31">
         <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
-        <v>88570312</v>
+        <v>21191069</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" s="29">
+        <v>35</v>
+      </c>
+      <c r="C73" s="31">
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>88</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>50192491</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" s="29">
+        <v>89</v>
+      </c>
+      <c r="C74" s="31">
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E74" s="16" t="s">
         <v>88</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>59830091</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C75" s="29">
+        <v>90</v>
+      </c>
+      <c r="C75" s="31">
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>88</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>60531407</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C76" s="29">
+        <v>35</v>
+      </c>
+      <c r="C76" s="31">
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>88</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
-        <v>21191069</v>
+        <v>88570312</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C77" s="29">
+        <v>89</v>
+      </c>
+      <c r="C77" s="31">
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E77" s="16" t="s">
         <v>88</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>23382393</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="29">
+        <v>81</v>
+      </c>
+      <c r="C78" s="31">
         <v>2</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1">
+        <v>46649190</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="31">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H78" t="s">
+      <c r="E79" s="17" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+      <c r="F79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1">
         <v>51818763</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79" s="29">
-        <v>2</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="1" t="s">
+      <c r="B80" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="31">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>46649190</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C80" s="29">
-        <v>2</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E80" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="H80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>67543819</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="29">
+        <v>8</v>
+      </c>
+      <c r="C81" s="31">
         <v>2</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>91259945</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C82" s="29">
+        <v>96</v>
+      </c>
+      <c r="C82" s="31">
         <v>2</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
-        <v>57538571</v>
+        <v>19741602</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C83" s="29">
+        <v>52</v>
+      </c>
+      <c r="C83" s="31">
         <v>2</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="H83" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
-        <v>91218123</v>
+        <v>57538571</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="31">
+        <v>2</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="C84" s="29">
-        <v>2</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
-        <v>19741602</v>
+        <v>63650527</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C85" s="29">
+        <v>100</v>
+      </c>
+      <c r="C85" s="31">
         <v>2</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
-        <v>63650527</v>
+        <v>78949195</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C86" s="29">
+        <v>58</v>
+      </c>
+      <c r="C86" s="31">
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>78</v>
@@ -3053,1081 +3106,1089 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
-        <v>78949195</v>
+        <v>91218123</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C87" s="29">
+        <v>101</v>
+      </c>
+      <c r="C87" s="31">
         <v>2</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H87" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
-        <v>74492265</v>
+        <v>10479046</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C88" s="29">
+        <v>72</v>
+      </c>
+      <c r="C88" s="31">
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E88" s="19" t="s">
         <v>102</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>17482613</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C89" s="29">
+      <c r="C89" s="31">
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>102</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
-        <v>87267225</v>
+        <v>74492265</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C90" s="29">
+      <c r="C90" s="31">
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>102</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
-        <v>93716843</v>
+        <v>87267225</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C91" s="29">
+      <c r="C91" s="31">
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>102</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
-        <v>10479046</v>
+        <v>93716843</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C92" s="29">
+        <v>106</v>
+      </c>
+      <c r="C92" s="31">
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E92" s="19" t="s">
         <v>102</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
-        <v>95699716</v>
+        <v>54747431</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C93" s="29">
+        <v>103</v>
+      </c>
+      <c r="C93" s="31">
         <v>2</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E93" s="20" t="s">
         <v>107</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="H93" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
-        <v>70416466</v>
+        <v>55612048</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C94" s="29">
+        <v>109</v>
+      </c>
+      <c r="C94" s="31">
         <v>2</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E94" s="20" t="s">
         <v>107</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
-        <v>55612048</v>
+        <v>68409978</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C95" s="29">
+        <v>110</v>
+      </c>
+      <c r="C95" s="31">
         <v>2</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E95" s="20" t="s">
         <v>107</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
-        <v>68409978</v>
+        <v>70416466</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C96" s="29">
+      <c r="C96" s="31">
         <v>2</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E96" s="20" t="s">
         <v>107</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
-        <v>54747431</v>
+        <v>95699716</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C97" s="29">
+        <v>112</v>
+      </c>
+      <c r="C97" s="31">
         <v>2</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E97" s="20" t="s">
         <v>107</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
-        <v>77282770</v>
+        <v>45305018</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C98" s="29">
+        <v>13</v>
+      </c>
+      <c r="C98" s="31">
         <v>2</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
-        <v>52832607</v>
+        <v>49979776</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="29">
+        <v>13</v>
+      </c>
+      <c r="C99" s="31">
         <v>2</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
-        <v>45305018</v>
+        <v>52832607</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="29">
+        <v>13</v>
+      </c>
+      <c r="C100" s="31">
         <v>2</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>53327060</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="29">
+        <v>13</v>
+      </c>
+      <c r="C101" s="31">
         <v>2</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
-        <v>49979776</v>
+        <v>77282770</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="29">
+        <v>40</v>
+      </c>
+      <c r="C102" s="31">
         <v>2</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
-        <v>78455201</v>
+        <v>16047854</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C103" s="29">
+        <v>70</v>
+      </c>
+      <c r="C103" s="31">
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>51170611</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C104" s="29">
+        <v>25</v>
+      </c>
+      <c r="C104" s="31">
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
+        <v>51818763</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" s="31">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1">
         <v>64746589</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C105" s="29">
+      <c r="B106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" s="31">
         <v>1</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>51818763</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C106" s="29">
+      <c r="D106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1">
+        <v>78455201</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107" s="31">
         <v>1</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>16047854</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C107" s="29">
-        <v>1</v>
-      </c>
       <c r="D107" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
-        <v>25684408</v>
+        <v>11890225</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C108" s="29">
+        <v>65</v>
+      </c>
+      <c r="C108" s="31">
         <v>2</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E108" s="23" t="s">
         <v>119</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
-        <v>45207172</v>
+        <v>13847777</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C109" s="29">
+        <v>65</v>
+      </c>
+      <c r="C109" s="31">
         <v>2</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E109" s="23" t="s">
         <v>119</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
-        <v>34409532</v>
+        <v>25684408</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C110" s="29">
+      <c r="C110" s="31">
         <v>2</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E110" s="23" t="s">
         <v>119</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
-        <v>13847777</v>
+        <v>34409532</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C111" s="29">
+        <v>121</v>
+      </c>
+      <c r="C111" s="31">
         <v>2</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E111" s="23" t="s">
         <v>119</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
-        <v>11890225</v>
+        <v>45207172</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C112" s="29">
+        <v>121</v>
+      </c>
+      <c r="C112" s="31">
         <v>2</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E112" s="23" t="s">
         <v>119</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1">
         <v>13176722</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C113" s="29">
+        <v>122</v>
+      </c>
+      <c r="C113" s="31">
         <v>2</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1">
-        <v>73205619</v>
+        <v>41061466</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C114" s="29">
+      <c r="C114" s="31">
         <v>2</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1">
-        <v>85052900</v>
+        <v>73205619</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C115" s="29">
+      <c r="C115" s="31">
         <v>2</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1">
-        <v>41061466</v>
+        <v>77945814</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C116" s="29">
+        <v>59</v>
+      </c>
+      <c r="C116" s="31">
         <v>2</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1">
-        <v>77945814</v>
+        <v>85052900</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C117" s="29">
+        <v>55</v>
+      </c>
+      <c r="C117" s="31">
         <v>2</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E117" s="24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1">
-        <v>56978265</v>
+        <v>11676061</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C118" s="29">
+        <v>29</v>
+      </c>
+      <c r="C118" s="31">
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E118" s="25" t="s">
         <v>124</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1">
-        <v>84225986</v>
+        <v>55612048</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C119" s="29">
+        <v>109</v>
+      </c>
+      <c r="C119" s="31">
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E119" s="25" t="s">
         <v>124</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1">
-        <v>11676061</v>
+        <v>56978265</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C120" s="29">
+        <v>125</v>
+      </c>
+      <c r="C120" s="31">
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E120" s="25" t="s">
         <v>124</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1">
         <v>77951549</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C121" s="29">
+        <v>126</v>
+      </c>
+      <c r="C121" s="31">
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E121" s="25" t="s">
         <v>124</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1">
-        <v>55612048</v>
+        <v>84225986</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C122" s="29">
+        <v>29</v>
+      </c>
+      <c r="C122" s="31">
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E122" s="25" t="s">
         <v>124</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1">
-        <v>75429670</v>
+        <v>36073062</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C123" s="29">
+        <v>127</v>
+      </c>
+      <c r="C123" s="31">
         <v>2</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F123" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="1">
+        <v>50192491</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C124" s="31">
+        <v>2</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>70482856</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C124" s="29">
-        <v>2</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E124" s="26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1">
         <v>58523689</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C125" s="29">
+        <v>89</v>
+      </c>
+      <c r="C125" s="31">
         <v>2</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1">
-        <v>50192491</v>
+        <v>70482856</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C126" s="29">
+        <v>70</v>
+      </c>
+      <c r="C126" s="31">
         <v>2</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1">
-        <v>36073062</v>
+        <v>75429670</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C127" s="29">
+        <v>70</v>
+      </c>
+      <c r="C127" s="31">
         <v>2</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1">
-        <v>17394511</v>
+        <v>12568747</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="29">
+        <v>30</v>
+      </c>
+      <c r="C128" s="31">
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E128" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
-        <v>71298277</v>
+        <v>16266264</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="29">
+        <v>13</v>
+      </c>
+      <c r="C129" s="31">
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
-        <v>16266264</v>
+        <v>17394511</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="29">
+        <v>13</v>
+      </c>
+      <c r="C130" s="31">
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E130" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>45305018</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="29">
+        <v>13</v>
+      </c>
+      <c r="C131" s="31">
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E131" s="27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
-        <v>12568747</v>
+        <v>71298277</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="31">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G132" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C132" s="29">
-        <v>3</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E132" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>72</v>
-      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="C134" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
